--- a/Industrials.xlsx
+++ b/Industrials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24962246-3400-43D3-8109-247F20049682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728C7D88-C79F-4742-9DDD-2527090E6E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47510" yWindow="2100" windowWidth="23810" windowHeight="16130" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
+    <workbookView xWindow="42870" yWindow="2960" windowWidth="21410" windowHeight="15810" activeTab="1" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="618">
   <si>
     <t>Name</t>
   </si>
@@ -1901,6 +1901,12 @@
   </si>
   <si>
     <t>Q125</t>
+  </si>
+  <si>
+    <t>Hive</t>
+  </si>
+  <si>
+    <t>HIVE</t>
   </si>
 </sst>
 </file>
@@ -2151,6 +2157,40 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
+          <cell r="K3">
+            <v>140.34679399999999</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>91.647000000000006</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
           <cell r="P3">
             <v>133.264062</v>
           </cell>
@@ -2172,7 +2212,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -2206,7 +2246,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -2240,7 +2280,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -2274,7 +2314,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -2303,38 +2343,6 @@
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="K3">
-            <v>791.79807600000004</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="K5">
-            <v>812.524</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="K6">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2588,18 +2596,17 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
           <cell r="K3">
-            <v>140.34679399999999</v>
+            <v>791.79807600000004</v>
           </cell>
         </row>
         <row r="5">
           <cell r="K5">
-            <v>91.647000000000006</v>
+            <v>812.524</v>
           </cell>
         </row>
         <row r="6">
@@ -2608,7 +2615,6 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2913,11 +2919,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B56EF2F-9AAA-4E23-B670-1242386800FF}">
   <dimension ref="A1:AC235"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C211" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G227" sqref="G227"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
@@ -5930,7 +5936,7 @@
         <v>7142.0186455200001</v>
       </c>
       <c r="F227" s="17">
-        <f>[15]Main!$K$5-[15]Main!$K$6</f>
+        <f>[9]Main!$K$5-[9]Main!$K$6</f>
         <v>812.524</v>
       </c>
       <c r="G227" s="17">
@@ -5941,7 +5947,7 @@
         <v>615</v>
       </c>
       <c r="I227" s="17">
-        <f>[15]Main!$K$3</f>
+        <f>[9]Main!$K$3</f>
         <v>791.79807600000004</v>
       </c>
       <c r="J227" s="18">
@@ -6091,7 +6097,7 @@
         <v>2790.0942647199995</v>
       </c>
       <c r="F235" s="3">
-        <f>+[9]Main!$K$5-[9]Main!$K$6</f>
+        <f>+[10]Main!$K$5-[10]Main!$K$6</f>
         <v>91.647000000000006</v>
       </c>
       <c r="G235" s="3">
@@ -6102,7 +6108,7 @@
         <v>439</v>
       </c>
       <c r="I235" s="3">
-        <f>+[9]Main!$K$3</f>
+        <f>+[10]Main!$K$3</f>
         <v>140.34679399999999</v>
       </c>
       <c r="J235" s="16">
@@ -6138,13 +6144,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4474E56-FB77-4B77-9CE1-6E407783E14B}">
-  <dimension ref="A1:X68"/>
+  <dimension ref="A1:X69"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D54" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D63" sqref="D63"/>
+      <selection pane="bottomRight" activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
@@ -6627,7 +6633,7 @@
         <v>25613.352716399997</v>
       </c>
       <c r="F37" s="17">
-        <f>+[10]Main!$P$5-[10]Main!$P$6</f>
+        <f>+[11]Main!$P$5-[11]Main!$P$6</f>
         <v>-4872.2999999999993</v>
       </c>
       <c r="G37" s="17">
@@ -6635,7 +6641,7 @@
         <v>30485.652716399996</v>
       </c>
       <c r="H37" s="17">
-        <f>+[10]Main!$P$3</f>
+        <f>+[11]Main!$P$3</f>
         <v>133.264062</v>
       </c>
       <c r="I37" s="2" t="s">
@@ -6718,7 +6724,7 @@
         <v>7703.1368994900013</v>
       </c>
       <c r="F43" s="17">
-        <f>+[11]Main!$N$5-[11]Main!$N$6</f>
+        <f>+[12]Main!$N$5-[12]Main!$N$6</f>
         <v>-22435</v>
       </c>
       <c r="G43" s="17">
@@ -6726,7 +6732,7 @@
         <v>30138.13689949</v>
       </c>
       <c r="H43" s="17">
-        <f>+[11]Main!$N$3</f>
+        <f>+[12]Main!$N$3</f>
         <v>656.70391300000006</v>
       </c>
       <c r="I43" s="2" t="s">
@@ -6762,7 +6768,7 @@
         <v>7506.67642118</v>
       </c>
       <c r="F45" s="17">
-        <f>+[12]Main!$L$5-[12]Main!$L$6</f>
+        <f>+[13]Main!$L$5-[13]Main!$L$6</f>
         <v>-1587</v>
       </c>
       <c r="G45" s="17">
@@ -6770,7 +6776,7 @@
         <v>9093.67642118</v>
       </c>
       <c r="H45" s="17">
-        <f>+[12]Main!$L$3</f>
+        <f>+[13]Main!$L$3</f>
         <v>80.079757000000001</v>
       </c>
       <c r="I45" s="2" t="s">
@@ -6795,7 +6801,7 @@
         <v>6479.0687500000004</v>
       </c>
       <c r="F46" s="17">
-        <f>+[13]Main!$H$5-[13]Main!$H$6</f>
+        <f>+[14]Main!$H$5-[14]Main!$H$6</f>
         <v>-1307.2</v>
       </c>
       <c r="G46" s="17">
@@ -6803,7 +6809,7 @@
         <v>7786.2687500000002</v>
       </c>
       <c r="H46" s="17">
-        <f>+[13]Main!$H$3</f>
+        <f>+[14]Main!$H$3</f>
         <v>185.11625000000001</v>
       </c>
       <c r="I46" s="2" t="s">
@@ -7026,7 +7032,7 @@
         <v>1224.3758563199999</v>
       </c>
       <c r="F65" s="17">
-        <f>+[14]Main!$K$5-[14]Main!$K$6</f>
+        <f>+[15]Main!$K$5-[15]Main!$K$6</f>
         <v>95.133999999999986</v>
       </c>
       <c r="G65" s="17">
@@ -7034,7 +7040,7 @@
         <v>1129.2418563199999</v>
       </c>
       <c r="H65" s="17">
-        <f>+[14]Main!$K$3</f>
+        <f>+[15]Main!$K$3</f>
         <v>206.820246</v>
       </c>
       <c r="I65" s="16" t="s">
@@ -7044,13 +7050,30 @@
         <v>45555</v>
       </c>
     </row>
-    <row r="67" spans="2:10" ht="13">
-      <c r="B67" s="14" t="s">
+    <row r="66" spans="2:10">
+      <c r="B66" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C66" t="s">
+        <v>617</v>
+      </c>
+      <c r="D66" s="21">
+        <v>4</v>
+      </c>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="16"/>
+      <c r="J66" s="18"/>
+    </row>
+    <row r="68" spans="2:10" ht="13">
+      <c r="B68" s="14" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="68" spans="2:10">
-      <c r="B68" t="s">
+    <row r="69" spans="2:10">
+      <c r="B69" t="s">
         <v>144</v>
       </c>
     </row>
@@ -7062,6 +7085,7 @@
     <hyperlink ref="B34" r:id="rId4" xr:uid="{E488D252-1EB4-4CE7-A8EB-3D04741A62CB}"/>
     <hyperlink ref="B46" r:id="rId5" xr:uid="{63BA1E06-255B-4EB1-8678-DDBD2CA94724}"/>
     <hyperlink ref="B37" r:id="rId6" xr:uid="{799133E6-77ED-4BF4-A4EA-ADF98A7D402C}"/>
+    <hyperlink ref="B66" r:id="rId7" xr:uid="{B7866BD8-61EC-4EC0-9B49-BA8020EB4339}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
